--- a/TOTES VARIABLES.xlsx
+++ b/TOTES VARIABLES.xlsx
@@ -153,9 +153,6 @@
     <t>Sífilis</t>
   </si>
   <si>
-    <t>A53, A53.9</t>
-  </si>
-  <si>
     <t>Gonococia</t>
   </si>
   <si>
@@ -556,23 +553,76 @@
   </si>
   <si>
     <t>Ens falta??</t>
+  </si>
+  <si>
+    <t>I73.1, I73.8, I73.9, I74</t>
+  </si>
+  <si>
+    <t>I20-I25</t>
+  </si>
+  <si>
+    <t>I61,I63, I65, I69, G45, G46</t>
+  </si>
+  <si>
+    <t>I50, I11.0, I13.0, I13.2</t>
+  </si>
+  <si>
+    <t>E11.40, E11.42, E11.43</t>
+  </si>
+  <si>
+    <t>A10BA, A10BA02, A10BB, A10BF, A10BG, A10BX02, A10BH, A10BJ, A10BK, A10BX</t>
+  </si>
+  <si>
+    <t>A10A (Codis ATC)</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I20</t>
+      <t>A53</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A53.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">E11, E11.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -583,56 +633,54 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I25</t>
+      <t xml:space="preserve"> E11.9</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A10BA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A10BA02</t>
+      <t xml:space="preserve"> E14, E14.0-E14.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E11.2, E12.2, E13.2, E14.2,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -643,383 +691,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A10BB, A10BF, A10BG, A10BX02, A10BH, A10BJ, A10BK, A10BX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A10A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Codis ATC)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E11, E11.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> E11.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> E14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E14.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E14.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I65, I69</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> G46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I73.1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, I73.8, I73.9, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I74</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I11.0, I13.0, I13.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E11.40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E11.42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> E11.43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E11.2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, E12.2, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E13.2, E14.2, N08.3</t>
+      <t>N08.3</t>
     </r>
   </si>
 </sst>
@@ -1078,23 +750,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1226,25 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,9 +918,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,26 +941,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1341,14 +973,49 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1633,52 +1300,52 @@
   <dimension ref="A2:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1687,14 +1354,14 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="37">
+      <c r="F5" s="26">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1706,14 +1373,14 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="37">
+      <c r="F6" s="26">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1721,12 +1388,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="37" t="s">
-        <v>137</v>
+      <c r="F7" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
@@ -1739,10 +1406,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
@@ -1755,12 +1422,12 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1772,9 +1439,9 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -1782,21 +1449,21 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="37">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1805,10 +1472,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
@@ -1818,11 +1485,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="37" t="s">
-        <v>127</v>
+      <c r="F13" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
@@ -1833,17 +1500,17 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1851,1241 +1518,1241 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>125</v>
+        <v>81</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>124</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>160</v>
+        <v>94</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>159</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>161</v>
+        <v>95</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>160</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="B20" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>168</v>
+      <c r="B21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>167</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>169</v>
+      <c r="B22" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>168</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>170</v>
+      <c r="B23" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>171</v>
+      <c r="B24" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>170</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>162</v>
+      <c r="B25" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>163</v>
+      <c r="B26" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>164</v>
+      <c r="B27" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>163</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>165</v>
+      <c r="B28" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>166</v>
+      <c r="B30" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>165</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>172</v>
+      <c r="B31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>171</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>155</v>
+        <v>111</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="37" t="s">
-        <v>127</v>
+      <c r="F33" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="B34" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="37" t="s">
-        <v>127</v>
+      <c r="F35" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>146</v>
+      <c r="F36" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="46"/>
+      <c r="B37" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="41"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>146</v>
+      <c r="F37" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="34"/>
+      <c r="C38" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="37"/>
+        <v>149</v>
+      </c>
+      <c r="F39" s="26"/>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="52"/>
+      <c r="G45" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="53"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="53"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="52"/>
+      <c r="G51" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="53"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="52"/>
+      <c r="G52" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="53"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="53"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="52"/>
+      <c r="G54" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="53"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="53"/>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="56"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="52">
+        <v>1</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="52"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="53"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="2" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="53"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="52"/>
+      <c r="G63" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="52"/>
+      <c r="G64" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="53"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="52"/>
+      <c r="G65" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="53"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="52"/>
+      <c r="G67" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="37">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="41" t="s">
+      <c r="D68" s="41"/>
+      <c r="E68" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="37"/>
-      <c r="G62" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="37"/>
-      <c r="G63" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" s="3"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="53"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="47" t="s">
-        <v>109</v>
+      <c r="B69" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" s="3"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="52"/>
+      <c r="G69" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" s="53"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="D70" s="41"/>
+      <c r="E70" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="53"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="D71" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="41"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="53"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="47" t="s">
+      <c r="C72" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="3"/>
+      <c r="D72" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="41"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="53"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="52"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="53"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="5"/>
+      <c r="C75" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="58"/>
+      <c r="E75" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="59"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="60"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="37"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="26"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="37"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="37"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="33"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="21" t="s">
+      <c r="C85" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="C93" s="14"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="21" t="s">
+      <c r="C94" s="14"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="21" t="s">
+      <c r="C95" s="14"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="8"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="16"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="28" t="s">
-        <v>157</v>
+      <c r="B98" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="28" t="s">
-        <v>174</v>
+      <c r="B99" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/TOTES VARIABLES.xlsx
+++ b/TOTES VARIABLES.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="30" yWindow="5235" windowWidth="28635" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -946,33 +946,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -997,15 +970,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,6 +980,42 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1297,248 +1297,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H99"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="26">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="F5" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>137</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="F11" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="F13" s="26"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="B14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>124</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1550,37 +1594,25 @@
       <c r="G17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>160</v>
+      <c r="B18" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1592,25 +1624,37 @@
       <c r="G19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
+      <c r="B20" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>167</v>
+      <c r="B21" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -1623,15 +1667,15 @@
         <v>145</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>168</v>
+      <c r="B22" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>170</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -1648,11 +1692,11 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>169</v>
+      <c r="B23" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -1665,15 +1709,15 @@
         <v>145</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>170</v>
+      <c r="B24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -1690,11 +1734,11 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>161</v>
+      <c r="B25" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -1711,11 +1755,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>162</v>
+      <c r="B26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>164</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -1732,11 +1776,11 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>163</v>
+      <c r="B27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -1749,15 +1793,15 @@
         <v>145</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>164</v>
+      <c r="B28" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -1774,11 +1818,11 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>166</v>
+      <c r="B29" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>171</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
@@ -1791,15 +1835,15 @@
         <v>145</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>165</v>
+      <c r="B30" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -1815,54 +1859,42 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>171</v>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="26" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>154</v>
+      <c r="B32" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1872,683 +1904,673 @@
       <c r="G33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="B34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>18</v>
-      </c>
+      <c r="B35" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="32"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H35" s="3"/>
+      <c r="G35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="3"/>
+      <c r="B36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="41"/>
+      <c r="B37" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="E37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="43" t="s">
+      <c r="B38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="43"/>
+      <c r="G42" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="44"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="44"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="44"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="44"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="44"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41" t="s">
+      <c r="F49" s="43"/>
+      <c r="G49" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="44"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="53"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
+      <c r="F50" s="43"/>
+      <c r="G50" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="44"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="53"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41" t="s">
+      <c r="F51" s="43"/>
+      <c r="G51" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="44"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="53"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41" t="s">
+      <c r="F52" s="43"/>
+      <c r="G52" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="44"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="53"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41" t="s">
+      <c r="F53" s="43"/>
+      <c r="G53" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="44"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="52"/>
-      <c r="G44" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="53"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41" t="s">
+      <c r="F54" s="43"/>
+      <c r="G54" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="44"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="63"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="53"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41" t="s">
+      <c r="F56" s="43">
+        <v>1</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="44"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="53"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H48" s="53"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49" s="53"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="F57" s="43"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H51" s="53"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41" t="s">
+      <c r="F60" s="43"/>
+      <c r="G60" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="44"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="53"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="F61" s="43"/>
+      <c r="G61" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="44"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H53" s="53"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41" t="s">
+      <c r="F62" s="43"/>
+      <c r="G62" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="44"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" s="53"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="F63" s="43"/>
+      <c r="G63" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="44"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" s="53"/>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41" t="s">
+      <c r="F65" s="43"/>
+      <c r="G65" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="44"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H56" s="53"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41" t="s">
+      <c r="F66" s="43"/>
+      <c r="G66" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F58" s="52">
-        <v>1</v>
-      </c>
-      <c r="G58" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="53"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41" t="s">
+      <c r="F67" s="43"/>
+      <c r="G67" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="53"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="23" t="s">
+      <c r="F68" s="43"/>
+      <c r="G68" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="44"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="44"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="32"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="44"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="53"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="53"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="53"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="53"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="23"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="53"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="53"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="53"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="53"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="53"/>
-    </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="53"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="23" t="s">
-        <v>176</v>
-      </c>
+      <c r="B72" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="32"/>
+      <c r="E72" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="44"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="46"/>
+      <c r="E73" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="47"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="53"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="60"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -2559,212 +2581,192 @@
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="2"/>
+      <c r="B77" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="22"/>
+      <c r="B79" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="30" t="s">
-        <v>152</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="13"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C81" s="29"/>
       <c r="D81" s="13"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C82" s="29"/>
       <c r="D82" s="13"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="D83" s="13"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="D84" s="13"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>80</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C90" s="12"/>
       <c r="D90" s="13"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>120</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C91" s="14"/>
       <c r="D91" s="13"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C92" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="C92" s="14"/>
       <c r="D92" s="13"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="13"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="13"/>
+    <row r="94" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="18" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>